--- a/React学习1/React学习日记.xlsx
+++ b/React学习1/React学习日记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>React学习日记</t>
   </si>
@@ -107,15 +107,44 @@
   <si>
     <t>1、有函数式组件和类式组件</t>
   </si>
+  <si>
+    <t xml:space="preserve">1、视频课计划：React基础（20/141）
+2、组件实例的三大核心属性---state。
+</t>
+  </si>
+  <si>
+    <t>1、类中方法的this指向。</t>
+  </si>
+  <si>
+    <t>1、state用于初始化操作。
+2、状态是不能直接更改的，要通过setState进行更改。</t>
+  </si>
+  <si>
+    <t>1、游戏完善第一部分。
+2、视频课计划：React基础（30/141）
+3、组件实例的三大核心属性---prop。</t>
+  </si>
+  <si>
+    <t>1、组件中state的key命名问题。</t>
+  </si>
+  <si>
+    <t>1、相关state的key一致即可。</t>
+  </si>
+  <si>
+    <t>1、React+babel可以允许扩展运算符展开对象（但只适用于标签属性的传递）。
+2、对props进行限制---组件.propTypes(需要引入依赖包)/组件.defaultProps。
+3、props是只读的，不能对其进行修改（进行运算是可以的）。
+4、给类本身加东西，使用static</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -149,30 +178,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,47 +207,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,13 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -271,6 +277,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -279,8 +292,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,30 +337,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,13 +451,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,133 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,26 +535,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -546,21 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -572,6 +566,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +594,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -599,6 +617,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,137 +648,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +808,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -1104,8 +1136,8 @@
   <sheetPr/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1181,12 +1213,20 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5"/>
+    <row r="5" ht="72" spans="1:13">
+      <c r="A5" s="9">
+        <v>44683</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1196,12 +1236,22 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+    <row r="6" ht="129.6" spans="1:14">
+      <c r="A6" s="10">
+        <v>44684</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1246,7 +1296,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>

--- a/React学习1/React学习日记.xlsx
+++ b/React学习1/React学习日记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>React学习日记</t>
   </si>
@@ -136,15 +136,48 @@
 3、props是只读的，不能对其进行修改（进行运算是可以的）。
 4、给类本身加东西，使用static</t>
   </si>
+  <si>
+    <t>1、视频课计划：React基础（38/141）
+2、组件实例的三大核心属性---refs。
+3、了解React生命周期。</t>
+  </si>
+  <si>
+    <t>1、标签内的样式使用双花括号。</t>
+  </si>
+  <si>
+    <t>1、外层花括号：表示里面写的是js语句；
+  内层花括号：写行内CSS style样式时，行内样式必须是一个js对象。</t>
+  </si>
+  <si>
+    <t>1、组件内的标签可以定义ref属性来标识自己。（尽量少用）
+2、挂载和卸载组件生命周期。</t>
+  </si>
+  <si>
+    <t>1、视频课计划：React基础（47/141）。
+2、新旧版React生命周期钩子。
+3、棋子游戏：完成轮流落子部分</t>
+  </si>
+  <si>
+    <t>1、目前同一格子内可以反复变化状态。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、大概分为三个阶段：初始化阶段、更新阶段、卸载组件
+2、常用钩子：
+   componentDidMount
+   render
+   componentWillUnmount
+3、新版本：废弃3个钩子，新增2个钩子。
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -179,6 +212,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,7 +240,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,60 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -271,14 +318,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,7 +342,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,21 +350,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +370,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,138 +478,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -488,36 +551,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,15 +561,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,7 +598,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,17 +642,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,17 +661,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -636,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,137 +681,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,9 +841,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -1136,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1237,7 +1267,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" ht="129.6" spans="1:14">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>44684</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1262,12 +1292,22 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+    <row r="7" ht="72" spans="1:14">
+      <c r="A7" s="9">
+        <v>44685</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1278,12 +1318,20 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
+    <row r="8" ht="129.6" spans="1:14">
+      <c r="A8" s="9">
+        <v>44686</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1296,7 +1344,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>

--- a/React学习1/React学习日记.xlsx
+++ b/React学习1/React学习日记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>React学习日记</t>
   </si>
@@ -169,16 +169,35 @@
 3、新版本：废弃3个钩子，新增2个钩子。
 </t>
   </si>
+  <si>
+    <t>1、视频课计划：React基础（52/141）。
+2、DOM的Diffing算法。
+3、React脚手架。</t>
+  </si>
+  <si>
+    <t>1、Diffing算法使用index和id作为key值的区别。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、视频课计划：React基础（64/141）。
+2、案例：TodoList
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、关于组件的划分，静态组件和动态组件；
+2、关于父子之间通信：使用props和巧用函数；
+3、有一些细节上的处理不熟悉。
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -211,6 +230,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -218,6 +252,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -226,35 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,19 +297,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,6 +320,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -300,6 +335,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -309,49 +359,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,37 +389,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +485,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,133 +545,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,6 +580,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,6 +609,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,32 +651,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,20 +674,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +700,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -843,7 +862,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1167,7 +1186,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1342,12 +1361,18 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
+    <row r="9" ht="57.6" spans="1:14">
+      <c r="A9" s="9">
+        <v>44687</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1358,12 +1383,18 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+    <row r="10" ht="86.4" spans="1:14">
+      <c r="A10" s="9">
+        <v>44688</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>

--- a/React学习1/React学习日记.xlsx
+++ b/React学习1/React学习日记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>React学习日记</t>
   </si>
@@ -184,9 +184,34 @@
   </si>
   <si>
     <t xml:space="preserve">1、关于组件的划分，静态组件和动态组件；
-2、关于父子之间通信：使用props和巧用函数；
+2、关于父子之间通信：使用props、巧用函数；
 3、有一些细节上的处理不熟悉。
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、视频课计划：React基础（70/141）。
+2、ajax通信。
+</t>
+  </si>
+  <si>
+    <t>1、axios不熟练。</t>
+  </si>
+  <si>
+    <t>1、配置中间代理服务器，解决跨域。</t>
+  </si>
+  <si>
+    <t>1、数据请求小案例。
+2、下棋游戏---判断胜利者、保存历史记录。</t>
+  </si>
+  <si>
+    <t>1、状态提升。</t>
+  </si>
+  <si>
+    <t>1、若数据是组件自己使用：就把数据放到自己的state中；
+   若数据是某些组件使用：放到他们共同的父组件state中（状态提升）。</t>
+  </si>
+  <si>
+    <t>1、要灵活使用三元表达式</t>
   </si>
 </sst>
 </file>
@@ -194,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -230,6 +255,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -239,7 +331,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,51 +386,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,75 +396,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,13 +414,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,31 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,127 +588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,17 +608,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,22 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,23 +680,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,7 +689,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -688,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,133 +725,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1405,12 +1430,20 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
+    <row r="11" ht="72" spans="1:14">
+      <c r="A11" s="9">
+        <v>44689</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1421,12 +1454,22 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+    <row r="12" ht="72" spans="1:14">
+      <c r="A12" s="9">
+        <v>44690</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>

--- a/React学习1/React学习日记.xlsx
+++ b/React学习1/React学习日记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>React学习日记</t>
   </si>
@@ -213,14 +213,29 @@
   <si>
     <t>1、要灵活使用三元表达式</t>
   </si>
+  <si>
+    <t>1、视频课计划：React基础（75/141）。
+2、消息订阅-发布机制。</t>
+  </si>
+  <si>
+    <t>1、fetch和xhr是同一个级别的，fetch有兼容性问题。</t>
+  </si>
+  <si>
+    <t>1、视频课计划：React基础（80/141）。
+2、React路由学习。</t>
+  </si>
+  <si>
+    <t>1、SPA应用
+2、标签体内容是一个特殊的标签属性，也可以通过props传递（自动命名为children收集）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -255,6 +270,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -263,8 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,58 +354,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -369,23 +392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,6 +402,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,19 +429,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,13 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +573,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,133 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,16 +624,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,8 +641,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,16 +678,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,8 +704,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,142 +728,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1480,12 +1495,18 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+    <row r="13" ht="43.2" spans="1:14">
+      <c r="A13" s="9">
+        <v>44691</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1496,12 +1517,18 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+    <row r="14" ht="57.6" spans="1:14">
+      <c r="A14" s="9">
+        <v>44692</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>

--- a/React学习1/React学习日记.xlsx
+++ b/React学习1/React学习日记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>React学习日记</t>
   </si>
@@ -228,6 +228,29 @@
     <t>1、SPA应用
 2、标签体内容是一个特殊的标签属性，也可以通过props传递（自动命名为children收集）</t>
   </si>
+  <si>
+    <t>1、视频课计划：React基础（86/141）。
+2、Switch的使用。
+3、嵌套路由。</t>
+  </si>
+  <si>
+    <t>1、存在多级路由时，页面第一次打开的时候，不会出现样式丢失的问题，刷新页面之后会出现。</t>
+  </si>
+  <si>
+    <t>1、第一次路径匹配是正确的。</t>
+  </si>
+  <si>
+    <t>1、Switch可以提高路由匹配效率
+2、样式丢失，是因为找不到对应样式的路径了，修改样式引入路径。</t>
+  </si>
+  <si>
+    <t>1、视频课计划：React基础（94/141）。
+2、向路由组件传递参数。
+3、路由跳转的模式。</t>
+  </si>
+  <si>
+    <t>1、传参数有3种方法，params，search，state。</t>
+  </si>
 </sst>
 </file>
 
@@ -235,9 +258,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -271,7 +294,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +316,100 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,115 +424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,13 +452,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,13 +602,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,151 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,30 +643,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -662,32 +661,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,13 +705,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,10 +751,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,7 +763,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,22 +772,28 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,100 +802,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1539,12 +1562,22 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+    <row r="15" ht="57.6" spans="1:14">
+      <c r="A15" s="9">
+        <v>44693</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1555,12 +1588,18 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+    <row r="16" ht="57.6" spans="1:14">
+      <c r="A16" s="9">
+        <v>44694</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>

--- a/React学习1/React学习日记.xlsx
+++ b/React学习1/React学习日记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>React学习日记</t>
   </si>
@@ -251,16 +251,45 @@
   <si>
     <t>1、传参数有3种方法，params，search，state。</t>
   </si>
+  <si>
+    <t>1、视频课计划：React基础（99/141）。
+2、antd。
+3、redux（1）。</t>
+  </si>
+  <si>
+    <t>1、可能因为版本原因，按需引入失败。</t>
+  </si>
+  <si>
+    <t>1、查找官方文档进行尝试。</t>
+  </si>
+  <si>
+    <t>1、按需引入（修改脚手架的配置）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、视频课计划：React基础（105/141）。
+2、redux（2）。
+3、react-redux。
+</t>
+  </si>
+  <si>
+    <t>1、发现会出现渲染两次的问题。</t>
+  </si>
+  <si>
+    <t>1、去掉&lt;React.StrictMode&gt;就不会出现了。是因为React在严格模式下会执行两次render以帮忙检查额外的副作用，只会在开发模式下出现。</t>
+  </si>
+  <si>
+    <t>1、最重要的就是容器组件中的connect函数，承上启下。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -293,6 +322,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -301,21 +345,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,21 +374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,18 +382,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,13 +439,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -424,14 +453,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,31 +481,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,151 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +672,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -657,17 +695,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,33 +716,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,6 +743,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -751,10 +780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,10 +792,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,121 +804,121 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,7 +1278,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1610,12 +1639,22 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+    <row r="17" ht="57.6" spans="1:14">
+      <c r="A17" s="9">
+        <v>44695</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1626,12 +1665,22 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+    <row r="18" ht="72" spans="1:14">
+      <c r="A18" s="9">
+        <v>44695</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>

--- a/React学习1/React学习日记.xlsx
+++ b/React学习1/React学习日记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>React学习日记</t>
   </si>
@@ -278,7 +278,26 @@
     <t>1、去掉&lt;React.StrictMode&gt;就不会出现了。是因为React在严格模式下会执行两次render以帮忙检查额外的副作用，只会在开发模式下出现。</t>
   </si>
   <si>
-    <t>1、最重要的就是容器组件中的connect函数，承上启下。</t>
+    <t>1、最重要的就是容器组件中的connect函数，承上启下。
+2、使用react-redux就无需自己去监测redux中状态的改变，容器组件会监测。</t>
+  </si>
+  <si>
+    <t>1、视频课计划：React基础（110/141）。
+2、react-redux（2）。</t>
+  </si>
+  <si>
+    <t>1、使用react-redux就不需要再去监测redux中组件状态的变化。</t>
+  </si>
+  <si>
+    <t>1、视频课计划：React基础（115/141）。
+2、数据共享。</t>
+  </si>
+  <si>
+    <t>1、文件过多---对各文件的功能和关系不明确。</t>
+  </si>
+  <si>
+    <t>1、要实现数据共享，需要把所有组件公共的状态放到redux中保存，注意所有redux汇总的方式，合并后的总状态是一个对象。
+2、注意使用数组操作方法时（铺设，unshift...），有时只是进行浅比较，认为地址一样，就不会进行更新。</t>
   </si>
 </sst>
 </file>
@@ -286,8 +305,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -322,6 +341,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -331,28 +385,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,6 +415,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,82 +480,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,187 +500,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,15 +691,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -699,6 +709,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -710,32 +738,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,9 +768,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,10 +799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,137 +811,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,6 +974,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1277,8 +1299,8 @@
   <sheetPr/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1667,7 +1689,7 @@
     </row>
     <row r="18" ht="72" spans="1:14">
       <c r="A18" s="9">
-        <v>44695</v>
+        <v>44696</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>51</v>
@@ -1691,12 +1713,18 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+    <row r="19" ht="43.2" spans="1:14">
+      <c r="A19" s="9">
+        <v>44697</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1707,12 +1735,20 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="5"/>
+    <row r="20" ht="115.2" spans="1:14">
+      <c r="A20" s="9">
+        <v>44698</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>

--- a/React学习1/React学习日记.xlsx
+++ b/React学习1/React学习日记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>React学习日记</t>
   </si>
@@ -296,8 +296,35 @@
     <t>1、文件过多---对各文件的功能和关系不明确。</t>
   </si>
   <si>
+    <t>1、自我梳理结构，文件功能。</t>
+  </si>
+  <si>
     <t>1、要实现数据共享，需要把所有组件公共的状态放到redux中保存，注意所有redux汇总的方式，合并后的总状态是一个对象。
 2、注意使用数组操作方法时（铺设，unshift...），有时只是进行浅比较，认为地址一样，就不会进行更新。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、视频课计划：React基础（120/141）。
+2、扩展1-setState。
+3、扩展2-lazyload。
+4、扩展3-hooks。
+</t>
+  </si>
+  <si>
+    <t>1、setState中不仅可以使用对象，还可以使用函数（新状态依赖于原状态）。
+2、注册路由时要使用Suspense。
+3、hooks可以让你在函数组件中使用 state 以及其他的 React 特性。</t>
+  </si>
+  <si>
+    <t>1、视频课计划：React基础（128/141）。
+2、扩展4-Fragment。
+3、扩展5-context。
+4、扩展6-PureComponent。
+5、扩展7-render props。</t>
+  </si>
+  <si>
+    <t>1、Fragment只能有key属性。
+2、context是组件间的一种通信方式。
+3、使用PureComponent进行优化，当组件的数据发生变化是才重新render()。</t>
   </si>
 </sst>
 </file>
@@ -305,10 +332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -342,35 +369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,7 +384,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,25 +491,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,55 +506,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,13 +527,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,169 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,30 +718,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -738,6 +741,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,17 +795,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -791,6 +809,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -799,10 +826,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,137 +838,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,9 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1299,8 +1323,8 @@
   <sheetPr/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1745,9 +1769,11 @@
       <c r="C20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="5" t="s">
         <v>59</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1759,12 +1785,18 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+    <row r="21" ht="100.8" spans="1:14">
+      <c r="A21" s="9">
+        <v>44699</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1775,12 +1807,18 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+    <row r="22" ht="86.4" spans="1:14">
+      <c r="A22" s="9">
+        <v>44700</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>

--- a/React学习1/React学习日记.xlsx
+++ b/React学习1/React学习日记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>React学习日记</t>
   </si>
@@ -326,16 +326,41 @@
 2、context是组件间的一种通信方式。
 3、使用PureComponent进行优化，当组件的数据发生变化是才重新render()。</t>
   </si>
+  <si>
+    <t xml:space="preserve">1、视频课计划：React基础（141/141）。
+2、ReactRoute6中新增知识。
+</t>
+  </si>
+  <si>
+    <t>1、与ReactRoute5相比，部分知识做了改变，更偏向于函数式组件。</t>
+  </si>
+  <si>
+    <t>React学习总结</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、知识点过了一遍，边手敲代码，但是对知识理解不够深刻，浮于表面---需要大量的练习和思考。
+</t>
+  </si>
+  <si>
+    <t>2、学习的太浅，很多时候意识不到自己的问题，要在实践中边尝试边学习。</t>
+  </si>
+  <si>
+    <t>3、案例的编写，没有指导的时候，很容易出错，而且对结构划分不明确。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总结：缺乏练习和实践，需要大量的练习。
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -368,10 +393,71 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,48 +469,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,14 +481,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,14 +493,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -469,7 +502,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,16 +523,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,13 +532,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,19 +552,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,37 +642,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,13 +672,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,49 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,49 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,9 +748,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,27 +802,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -775,22 +815,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,15 +843,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -826,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,16 +863,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,115 +881,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1323,8 +1348,8 @@
   <sheetPr/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1829,12 +1854,18 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+    <row r="23" ht="57.6" spans="1:14">
+      <c r="A23" s="9">
+        <v>44701</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1861,12 +1892,22 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+    <row r="25" ht="72" spans="1:14">
+      <c r="A25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
